--- a/SipoctableToHtml/Excel-format.xlsx
+++ b/SipoctableToHtml/Excel-format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f66c748d79085b20/Documents/GitHub/MandyFazl-Portfolio/PHM-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f66c748d79085b20/Documents/GitHub/MandyFazl-Portfolio/PHM-Project/SipoctableToHtml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_3286A22760B3CC9C87E1F8009B6D4225D7970BD4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D530E9FB-5FD9-4237-8EA2-BBC68E7FA08A}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_3286A22760B3CC9C87E1F8009B6D4225D7970BD4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F689A20-86C5-45B7-94D8-98BB9927AAE4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>PREVIOUS KEY HUMAN RESOURCE AND ACTIVITY: Customer need for new furniture</t>
   </si>
@@ -188,6 +188,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,16 +399,16 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="92.44140625" customWidth="1"/>
-    <col min="2" max="2" width="55.5546875" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" customWidth="1"/>
-    <col min="4" max="4" width="76" customWidth="1"/>
-    <col min="5" max="5" width="50.109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="62.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -446,12 +454,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
@@ -466,12 +470,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
@@ -486,18 +486,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
@@ -512,9 +504,7 @@
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
@@ -526,15 +516,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
